--- a/projeto 1/testes.xlsx
+++ b/projeto 1/testes.xlsx
@@ -211,7 +211,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr/>
+              <a:defRPr b="1" i="0"/>
             </a:pPr>
             <a:r>
               <a:t>S (R/C) em comparação com C (Baudrate)</a:t>
@@ -238,6 +238,7 @@
               <a:solidFill>
                 <a:srgbClr val="980000"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
           <c:marker>
@@ -266,11 +267,11 @@
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="20587598"/>
-        <c:axId val="1987914137"/>
+        <c:axId val="19856526"/>
+        <c:axId val="1345393252"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="20587598"/>
+        <c:axId val="19856526"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -283,7 +284,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr lvl="0">
-                  <a:defRPr/>
+                  <a:defRPr b="1" i="0"/>
                 </a:pPr>
                 <a:r>
                   <a:t>C (Baudrate)</a:t>
@@ -298,14 +299,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr/>
+              <a:defRPr b="1" i="0"/>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1987914137"/>
+        <c:crossAx val="1345393252"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1987914137"/>
+        <c:axId val="1345393252"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -327,7 +328,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr lvl="0">
-                  <a:defRPr/>
+                  <a:defRPr b="1" i="0"/>
                 </a:pPr>
                 <a:r>
                   <a:t>S (R/C)</a:t>
@@ -349,12 +350,17 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr/>
+              <a:defRPr b="1" i="0"/>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="20587598"/>
+        <c:crossAx val="19856526"/>
       </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -379,7 +385,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr/>
+              <a:defRPr b="1" i="0"/>
             </a:pPr>
             <a:r>
               <a:t>S (R/C) em comparação com Tamanho de cada pacote(bytes)</a:t>
@@ -406,6 +412,7 @@
               <a:solidFill>
                 <a:srgbClr val="3366CC"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
           <c:marker>
@@ -434,11 +441,11 @@
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="622738648"/>
-        <c:axId val="1836932390"/>
+        <c:axId val="1162912836"/>
+        <c:axId val="2103130123"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="622738648"/>
+        <c:axId val="1162912836"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -451,7 +458,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr lvl="0">
-                  <a:defRPr/>
+                  <a:defRPr b="1" i="0"/>
                 </a:pPr>
                 <a:r>
                   <a:t>Tamanho de cada pacote(bytes)</a:t>
@@ -466,14 +473,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr/>
+              <a:defRPr b="1" i="0"/>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1836932390"/>
+        <c:crossAx val="2103130123"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1836932390"/>
+        <c:axId val="2103130123"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -483,7 +490,7 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -495,7 +502,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr lvl="0">
-                  <a:defRPr/>
+                  <a:defRPr b="1" i="0"/>
                 </a:pPr>
                 <a:r>
                   <a:t>S (R/C)</a:t>
@@ -517,12 +524,17 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr/>
+              <a:defRPr b="1" i="0"/>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="622738648"/>
+        <c:crossAx val="1162912836"/>
       </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -547,7 +559,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr/>
+              <a:defRPr b="1" i="0"/>
             </a:pPr>
             <a:r>
               <a:t>S (R/C) em comparação com Probabilidade de erro </a:t>
@@ -574,6 +586,7 @@
               <a:solidFill>
                 <a:srgbClr val="3366CC"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
           <c:marker>
@@ -602,11 +615,11 @@
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="995187290"/>
-        <c:axId val="1327106171"/>
+        <c:axId val="400124293"/>
+        <c:axId val="785455585"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="995187290"/>
+        <c:axId val="400124293"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -619,7 +632,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr lvl="0">
-                  <a:defRPr/>
+                  <a:defRPr b="1" i="0"/>
                 </a:pPr>
                 <a:r>
                   <a:t>Probabilidade de erro (%bcc1 +%bcc2)</a:t>
@@ -634,14 +647,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr/>
+              <a:defRPr b="1" i="0"/>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1327106171"/>
+        <c:crossAx val="785455585"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1327106171"/>
+        <c:axId val="785455585"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -663,7 +676,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr lvl="0">
-                  <a:defRPr/>
+                  <a:defRPr b="1" i="0"/>
                 </a:pPr>
                 <a:r>
                   <a:t>S (R/C)</a:t>
@@ -685,12 +698,17 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr/>
+              <a:defRPr b="1" i="0"/>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="995187290"/>
+        <c:crossAx val="400124293"/>
       </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -814,7 +832,7 @@
     <col customWidth="1" min="6" max="6" width="13.57"/>
     <col customWidth="1" min="7" max="7" width="18.57"/>
     <col customWidth="1" min="8" max="9" width="13.57"/>
-    <col customWidth="1" min="10" max="26" width="8.71"/>
+    <col customWidth="1" min="10" max="19" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1"/>
@@ -1755,15 +1773,15 @@
         <v>600.0</v>
       </c>
       <c r="F56">
-        <v>206.147</v>
+        <v>205.4266</v>
       </c>
       <c r="G56" s="3">
         <f t="shared" ref="G56:G71" si="5">$C$56/F56</f>
-        <v>425.6380156</v>
+        <v>427.1306637</v>
       </c>
       <c r="H56" s="3">
         <f t="shared" ref="H56:H71" si="6">G56/E56</f>
-        <v>0.7093966927</v>
+        <v>0.7118844395</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
@@ -1777,15 +1795,15 @@
         <v>600.0</v>
       </c>
       <c r="F57">
-        <v>205.4266</v>
+        <v>206.147</v>
       </c>
       <c r="G57" s="3">
         <f t="shared" si="5"/>
-        <v>427.1306637</v>
+        <v>425.6380156</v>
       </c>
       <c r="H57" s="3">
         <f t="shared" si="6"/>
-        <v>0.7118844395</v>
+        <v>0.7093966927</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
@@ -1953,15 +1971,15 @@
         <v>19200.0</v>
       </c>
       <c r="F68">
-        <v>6.7863</v>
+        <v>6.7767</v>
       </c>
       <c r="G68" s="3">
         <f t="shared" si="5"/>
-        <v>12929.57871</v>
+        <v>12947.89499</v>
       </c>
       <c r="H68" s="3">
         <f t="shared" si="6"/>
-        <v>0.6734155578</v>
+        <v>0.6743695309</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
@@ -1969,15 +1987,15 @@
         <v>19200.0</v>
       </c>
       <c r="F69">
-        <v>6.7767</v>
+        <v>6.7863</v>
       </c>
       <c r="G69" s="3">
         <f t="shared" si="5"/>
-        <v>12947.89499</v>
+        <v>12929.57871</v>
       </c>
       <c r="H69" s="3">
         <f t="shared" si="6"/>
-        <v>0.6743695309</v>
+        <v>0.6734155578</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
@@ -2013,934 +2031,6 @@
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/projeto 1/testes.xlsx
+++ b/projeto 1/testes.xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\GitKraken\feup-rcom\projeto 1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Folha1" sheetId="1" r:id="rId3"/>
+    <sheet name="Folha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -100,35 +108,35 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF990000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -138,7 +146,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -148,130 +156,390 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="1" i="0"/>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>S (R/C) em comparação com C (Baudrate)</a:t>
+              <a:rPr lang="pt-PT"/>
+              <a:t>Eficiência em comparação com % de erros dos BCCs</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Folha1!$H$55</c:f>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
-            <a:ln cmpd="sng" w="19050">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="980000"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
+              <a:round/>
             </a:ln>
+            <a:effectLst>
+              <a:softEdge rad="0"/>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="2"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="980000"/>
-              </a:solidFill>
-              <a:ln cmpd="sng">
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
                 <a:solidFill>
-                  <a:srgbClr val="980000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
+              <a:effectLst>
+                <a:softEdge rad="0"/>
+              </a:effectLst>
             </c:spPr>
           </c:marker>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="6"/>
+              <c:spPr>
+                <a:gradFill rotWithShape="1">
+                  <a:gsLst>
+                    <a:gs pos="0">
+                      <a:schemeClr val="accent1">
+                        <a:satMod val="103000"/>
+                        <a:lumMod val="102000"/>
+                        <a:tint val="94000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="50000">
+                      <a:schemeClr val="accent1">
+                        <a:satMod val="110000"/>
+                        <a:lumMod val="100000"/>
+                        <a:shade val="100000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="100000">
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="99000"/>
+                        <a:satMod val="120000"/>
+                        <a:shade val="78000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                  </a:gsLst>
+                  <a:lin ang="5400000" scaled="0"/>
+                </a:gradFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst>
+                  <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                    <a:srgbClr val="000000">
+                      <a:alpha val="63000"/>
+                    </a:srgbClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-48F7-475E-BD68-AFF0755A1EDB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Folha1!$E$56:$E$71</c:f>
+              <c:f>Folha1!$E$7:$E$22</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0+0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2+0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0+2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2+2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4+2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2+4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4+4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6+4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4+6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6+6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8+6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6+8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8+8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10+8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8+10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10+10</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Folha1!$H$56:$H$71</c:f>
+              <c:f>Folha1!$H$7:$H$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.6599087390977878</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34851442864986881</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.64606423885998643</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34630132003697922</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17756675266544403</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17979950584643467</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.17647104253067969</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14243682287965492</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.17537127288077053</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.11909539619415938</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.2383655548832831E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.9994643644842151E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.5822070125710078E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.8274783872630629E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.0365256030581543E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.5574306063875823E-2</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-48F7-475E-BD68-AFF0755A1EDB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:axId val="19856526"/>
-        <c:axId val="1345393252"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="699579056"/>
+        <c:axId val="696061328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="19856526"/>
+        <c:axId val="699579056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -280,33 +548,106 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="1" i="0"/>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t>C (Baudrate)</a:t>
+                  <a:rPr lang="pt-PT" sz="1400"/>
+                  <a:t>%BCC1</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" sz="1400" baseline="0"/>
+                  <a:t> +%BCC2</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-PT" sz="1400"/>
               </a:p>
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="1" i="0"/>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1345393252"/>
+        <c:crossAx val="696061328"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1345393252"/>
+        <c:axId val="696061328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -314,173 +655,562 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
               </a:solidFill>
+              <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="1" i="0"/>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t>S (R/C)</a:t>
+                  <a:rPr lang="pt-PT" sz="1400"/>
+                  <a:t>S(R/C)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="47625">
+          <a:noFill/>
+          <a:ln>
             <a:noFill/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="1" i="0"/>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="19856526"/>
+        <c:crossAx val="699579056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="000000"/>
-    </a:solidFill>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
   </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="1" i="0"/>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>S (R/C) em comparação com Tamanho de cada pacote(bytes)</a:t>
+              <a:rPr lang="pt-PT" sz="1600" b="1"/>
+              <a:t>Eficiência</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="pt-PT" sz="1600" b="1" baseline="0"/>
+              <a:t> em comparação com tamanhos das tramas</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-PT" sz="1600" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Folha1!$H$28</c:f>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
-            <a:ln cmpd="sng" w="19050">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="3366CC"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
             </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="2"/>
+            <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="3366CC"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:ln cmpd="sng">
-                <a:solidFill>
-                  <a:srgbClr val="3366CC"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
           </c:marker>
-          <c:cat>
-            <c:strRef>
+          <c:xVal>
+            <c:numRef>
               <c:f>Folha1!$E$29:$E$48</c:f>
-            </c:strRef>
-          </c:cat>
-          <c:val>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10968</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10968</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>131072</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Folha1!$H$29:$H$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.18938452102706912</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18928098078197483</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.30427314007217332</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30493094014812833</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.43624353271349209</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.43793242233167867</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.56412788544624115</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.56275243818343024</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.66013751661177567</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.66072926004106058</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.7208884121525696</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.72100214565189946</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.75674780592813384</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.75707375256775555</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.77583865272307495</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.77575963333899167</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.79425770794952899</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.79436815574482877</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.79423010079944389</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.79423010079944389</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DE76-40B8-8362-C3EECA41505A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:axId val="1162912836"/>
-        <c:axId val="2103130123"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1162912836"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="801161536"/>
+        <c:axId val="813287552"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="801161536"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="1" i="0"/>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t>Tamanho de cada pacote(bytes)</a:t>
+                  <a:rPr lang="pt-PT" sz="1400"/>
+                  <a:t>Tamanho máximo</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" sz="1400" baseline="0"/>
+                  <a:t> de cada trama (bytes)</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-PT" sz="1400"/>
               </a:p>
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="1" i="0"/>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2103130123"/>
-      </c:catAx>
+        <c:crossAx val="813287552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="2103130123"/>
+        <c:axId val="813287552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -488,173 +1218,608 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:srgbClr val="D9D9D9"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
+              <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="1" i="0"/>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t>S (R/C)</a:t>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>S(R/C)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="47625">
-            <a:noFill/>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="1" i="0"/>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1162912836"/>
+        <c:crossAx val="801161536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="000000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
     </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
   </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="1" i="0"/>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>S (R/C) em comparação com Probabilidade de erro </a:t>
+              <a:rPr lang="pt-PT"/>
+              <a:t>Eficiência em comparação com</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="pt-PT" baseline="0"/>
+              <a:t> BAUDRATE</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:rich>
       </c:tx>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Folha1!$H$6</c:f>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
-            <a:ln cmpd="sng" w="19050">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="3366CC"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
             </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="2"/>
+            <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="3366CC"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:ln cmpd="sng">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="3"/>
+              <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="3366CC"/>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="175000"/>
+                      <a:alpha val="25000"/>
+                    </a:schemeClr>
+                  </a:glow>
+                </a:effectLst>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="22225" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="99000"/>
+                  </a:schemeClr>
                 </a:solidFill>
               </a:ln>
+              <a:effectLst>
+                <a:glow rad="139700">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="14000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Folha1!$E$7:$E$22</c:f>
-            </c:strRef>
-          </c:cat>
-          <c:val>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-DA4B-4EDB-B64B-1C902F1BB7C1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="3"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:alpha val="96000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="175000"/>
+                      <a:alpha val="25000"/>
+                    </a:schemeClr>
+                  </a:glow>
+                </a:effectLst>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-DA4B-4EDB-B64B-1C902F1BB7C1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:xVal>
             <c:numRef>
-              <c:f>Folha1!$H$7:$H$22</c:f>
+              <c:f>Folha1!$E$56:$E$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9600</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19200</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>38400</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>38400</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Folha1!$H$56:$H$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.71188443950296598</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.70939669265136052</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7113885405346505</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.71138923264918541</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.71086430483168017</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.71086948807577677</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.69077449500341037</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.69076013845432971</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.68834631200012053</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.6882970672068619</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.68331339712918659</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.68353313340861666</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.67436953089261742</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.67341555781500972</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.65914729129406335</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.65924237615764114</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DA4B-4EDB-B64B-1C902F1BB7C1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:axId val="400124293"/>
-        <c:axId val="785455585"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="400124293"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="865665456"/>
+        <c:axId val="688855488"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="865665456"/>
         <c:scaling>
+          <c:logBase val="2"/>
           <c:orientation val="minMax"/>
+          <c:min val="600"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="1" i="0"/>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t>Probabilidade de erro (%bcc1 +%bcc2)</a:t>
+                  <a:rPr lang="pt-PT" sz="1400"/>
+                  <a:t>BAUDRATE(bits)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="1" i="0"/>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="785455585"/>
-      </c:catAx>
+        <c:crossAx val="688855488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="785455585"/>
+        <c:axId val="688855488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -662,85 +1827,1875 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
+              <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="1" i="0"/>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t>S (R/C)</a:t>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>S(R/C)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="47625">
-            <a:noFill/>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="1" i="0"/>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="400124293"/>
+        <c:crossAx val="865665456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="000000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
     </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
   </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>149678</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>97969</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1333500</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>340178</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Chart 1" title="Gráfico"/>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AF8947A-431C-49B0-AECB-F55DB7206054}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -749,28 +3704,34 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
-    <xdr:clientData fLocksWithSheet="0"/>
+    <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>340177</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>84364</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1238250</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 2" title="Gráfico"/>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D903E72-51D6-4B83-86F1-13972EE2EA5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -779,28 +3740,34 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
-    <xdr:clientData fLocksWithSheet="0"/>
+    <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>1686486</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>146796</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>302559</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 3" title="Gráfico"/>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4B06574-F451-4012-ACA8-1786BCAC4F24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -809,35 +3776,333 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
-    <xdr:clientData fLocksWithSheet="0"/>
+    <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:I72"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.57"/>
-    <col customWidth="1" min="2" max="2" width="34.14"/>
-    <col customWidth="1" min="3" max="4" width="13.57"/>
-    <col customWidth="1" min="5" max="5" width="38.0"/>
-    <col customWidth="1" min="6" max="6" width="13.57"/>
-    <col customWidth="1" min="7" max="7" width="18.57"/>
-    <col customWidth="1" min="8" max="9" width="13.57"/>
-    <col customWidth="1" min="10" max="19" width="8.71"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" customWidth="1"/>
+    <col min="3" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="38" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" customWidth="1"/>
+    <col min="8" max="9" width="13.5703125" customWidth="1"/>
+    <col min="10" max="19" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1"/>
-    <row r="2" ht="15.75" customHeight="1"/>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="1" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -849,7 +4114,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -859,7 +4124,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -869,12 +4134,12 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="5">
-        <v>10968.0</v>
+        <v>10968</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="6" t="s">
@@ -891,36 +4156,36 @@
       </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="5">
-        <v>87744.0</v>
+        <v>87744</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="7" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="5">
-        <v>3.4626</v>
+        <v>3.4626000000000001</v>
       </c>
       <c r="G7" s="3">
-        <f t="shared" ref="G7:G22" si="1">$C$7/F7</f>
-        <v>25340.49558</v>
+        <f t="shared" ref="G7:G22" si="0">$C$7/F7</f>
+        <v>25340.495581355051</v>
       </c>
       <c r="H7" s="3">
-        <f t="shared" ref="H7:H22" si="2">G7/$C$8</f>
-        <v>0.6599087391</v>
+        <f t="shared" ref="H7:H22" si="1">G7/$C$8</f>
+        <v>0.6599087390977878</v>
       </c>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="5">
-        <v>38400.0</v>
+        <v>38400</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="7" t="s">
@@ -930,40 +4195,40 @@
         <v>6.5564</v>
       </c>
       <c r="G8" s="3">
+        <f t="shared" si="0"/>
+        <v>13382.954060154963</v>
+      </c>
+      <c r="H8" s="3">
         <f t="shared" si="1"/>
-        <v>13382.95406</v>
-      </c>
-      <c r="H8" s="3">
-        <f t="shared" si="2"/>
-        <v>0.3485144286</v>
+        <v>0.34851442864986881</v>
       </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="5">
-        <v>128.0</v>
+        <v>128</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="5">
-        <v>3.5368</v>
+        <v>3.5367999999999999</v>
       </c>
       <c r="G9" s="3">
+        <f t="shared" si="0"/>
+        <v>24808.866772223479</v>
+      </c>
+      <c r="H9" s="3">
         <f t="shared" si="1"/>
-        <v>24808.86677</v>
-      </c>
-      <c r="H9" s="3">
-        <f t="shared" si="2"/>
-        <v>0.6460642389</v>
+        <v>0.64606423885998643</v>
       </c>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -971,19 +4236,19 @@
         <v>12</v>
       </c>
       <c r="F10" s="5">
-        <v>6.5983</v>
+        <v>6.5983000000000001</v>
       </c>
       <c r="G10" s="3">
+        <f t="shared" si="0"/>
+        <v>13297.970689420003</v>
+      </c>
+      <c r="H10" s="3">
         <f t="shared" si="1"/>
-        <v>13297.97069</v>
-      </c>
-      <c r="H10" s="3">
-        <f t="shared" si="2"/>
-        <v>0.34630132</v>
+        <v>0.34630132003697922</v>
       </c>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -991,19 +4256,19 @@
         <v>13</v>
       </c>
       <c r="F11" s="5">
-        <v>12.8684</v>
+        <v>12.868399999999999</v>
       </c>
       <c r="G11" s="3">
+        <f t="shared" si="0"/>
+        <v>6818.5633023530509</v>
+      </c>
+      <c r="H11" s="3">
         <f t="shared" si="1"/>
-        <v>6818.563302</v>
-      </c>
-      <c r="H11" s="3">
-        <f t="shared" si="2"/>
-        <v>0.1775667527</v>
+        <v>0.17756675266544403</v>
       </c>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -1011,19 +4276,19 @@
         <v>14</v>
       </c>
       <c r="F12" s="5">
-        <v>12.7086</v>
+        <v>12.708600000000001</v>
       </c>
       <c r="G12" s="3">
+        <f t="shared" si="0"/>
+        <v>6904.3010245030919</v>
+      </c>
+      <c r="H12" s="3">
         <f t="shared" si="1"/>
-        <v>6904.301025</v>
-      </c>
-      <c r="H12" s="3">
-        <f t="shared" si="2"/>
-        <v>0.1797995058</v>
+        <v>0.17979950584643467</v>
       </c>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1034,16 +4299,16 @@
         <v>12.9483</v>
       </c>
       <c r="G13" s="3">
+        <f t="shared" si="0"/>
+        <v>6776.4880331781005</v>
+      </c>
+      <c r="H13" s="3">
         <f t="shared" si="1"/>
-        <v>6776.488033</v>
-      </c>
-      <c r="H13" s="3">
-        <f t="shared" si="2"/>
-        <v>0.1764710425</v>
+        <v>0.17647104253067969</v>
       </c>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -1051,19 +4316,19 @@
         <v>16</v>
       </c>
       <c r="F14" s="5">
-        <v>16.0422</v>
+        <v>16.042200000000001</v>
       </c>
       <c r="G14" s="3">
+        <f t="shared" si="0"/>
+        <v>5469.5739985787486</v>
+      </c>
+      <c r="H14" s="3">
         <f t="shared" si="1"/>
-        <v>5469.573999</v>
-      </c>
-      <c r="H14" s="3">
-        <f t="shared" si="2"/>
-        <v>0.1424368229</v>
+        <v>0.14243682287965492</v>
       </c>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1071,19 +4336,19 @@
         <v>17</v>
       </c>
       <c r="F15" s="5">
-        <v>13.0295</v>
+        <v>13.029500000000001</v>
       </c>
       <c r="G15" s="3">
+        <f t="shared" si="0"/>
+        <v>6734.2568786215888</v>
+      </c>
+      <c r="H15" s="3">
         <f t="shared" si="1"/>
-        <v>6734.256879</v>
-      </c>
-      <c r="H15" s="3">
-        <f t="shared" si="2"/>
-        <v>0.1753712729</v>
+        <v>0.17537127288077053</v>
       </c>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1091,19 +4356,19 @@
         <v>18</v>
       </c>
       <c r="F16" s="5">
-        <v>19.1863</v>
+        <v>19.186299999999999</v>
       </c>
       <c r="G16" s="3">
+        <f t="shared" si="0"/>
+        <v>4573.2632138557201</v>
+      </c>
+      <c r="H16" s="3">
         <f t="shared" si="1"/>
-        <v>4573.263214</v>
-      </c>
-      <c r="H16" s="3">
-        <f t="shared" si="2"/>
-        <v>0.1190953962</v>
+        <v>0.11909539619415938</v>
       </c>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1111,19 +4376,19 @@
         <v>19</v>
       </c>
       <c r="F17" s="5">
-        <v>31.5679</v>
+        <v>31.567900000000002</v>
       </c>
       <c r="G17" s="3">
+        <f t="shared" si="0"/>
+        <v>2779.5323730751807</v>
+      </c>
+      <c r="H17" s="3">
         <f t="shared" si="1"/>
-        <v>2779.532373</v>
-      </c>
-      <c r="H17" s="3">
-        <f t="shared" si="2"/>
-        <v>0.07238365555</v>
+        <v>7.2383655548832831E-2</v>
       </c>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1134,16 +4399,16 @@
         <v>25.3904</v>
       </c>
       <c r="G18" s="3">
+        <f t="shared" si="0"/>
+        <v>3455.7943159619385</v>
+      </c>
+      <c r="H18" s="3">
         <f t="shared" si="1"/>
-        <v>3455.794316</v>
-      </c>
-      <c r="H18" s="3">
-        <f t="shared" si="2"/>
-        <v>0.08999464364</v>
+        <v>8.9994643644842151E-2</v>
       </c>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1151,19 +4416,19 @@
         <v>21</v>
       </c>
       <c r="F19" s="3">
-        <v>34.7148</v>
+        <v>34.714799999999997</v>
       </c>
       <c r="G19" s="3">
+        <f t="shared" si="0"/>
+        <v>2527.567492827267</v>
+      </c>
+      <c r="H19" s="3">
         <f t="shared" si="1"/>
-        <v>2527.567493</v>
-      </c>
-      <c r="H19" s="3">
-        <f t="shared" si="2"/>
-        <v>0.06582207013</v>
+        <v>6.5822070125710078E-2</v>
       </c>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1171,19 +4436,19 @@
         <v>22</v>
       </c>
       <c r="F20" s="3">
-        <v>47.3332</v>
+        <v>47.333199999999998</v>
       </c>
       <c r="G20" s="3">
+        <f t="shared" si="0"/>
+        <v>1853.7517007090162</v>
+      </c>
+      <c r="H20" s="3">
         <f t="shared" si="1"/>
-        <v>1853.751701</v>
-      </c>
-      <c r="H20" s="3">
-        <f t="shared" si="2"/>
-        <v>0.04827478387</v>
+        <v>4.8274783872630629E-2</v>
       </c>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1191,19 +4456,19 @@
         <v>23</v>
       </c>
       <c r="F21" s="3">
-        <v>37.8529</v>
+        <v>37.852899999999998</v>
       </c>
       <c r="G21" s="3">
+        <f t="shared" si="0"/>
+        <v>2318.0258315743313</v>
+      </c>
+      <c r="H21" s="3">
         <f t="shared" si="1"/>
-        <v>2318.025832</v>
-      </c>
-      <c r="H21" s="3">
-        <f t="shared" si="2"/>
-        <v>0.06036525603</v>
+        <v>6.0365256030581543E-2</v>
       </c>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1211,19 +4476,19 @@
         <v>24</v>
       </c>
       <c r="F22" s="3">
-        <v>50.1379</v>
+        <v>50.137900000000002</v>
       </c>
       <c r="G22" s="3">
+        <f t="shared" si="0"/>
+        <v>1750.0533528528317</v>
+      </c>
+      <c r="H22" s="3">
         <f t="shared" si="1"/>
-        <v>1750.053353</v>
-      </c>
-      <c r="H22" s="3">
-        <f t="shared" si="2"/>
-        <v>0.04557430606</v>
+        <v>4.5574306063875823E-2</v>
       </c>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1233,7 +4498,7 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1243,7 +4508,7 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1253,7 +4518,7 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>25</v>
       </c>
@@ -1265,7 +4530,7 @@
       <c r="H26" s="2"/>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1275,12 +4540,12 @@
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C28" s="5">
-        <v>10968.0</v>
+        <v>10968</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="6" t="s">
@@ -1297,439 +4562,439 @@
       </c>
       <c r="I28" s="3"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C29" s="5">
-        <v>87744.0</v>
+        <v>87744</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="5">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="F29" s="5">
         <v>12.0654</v>
       </c>
       <c r="G29" s="3">
-        <f t="shared" ref="G29:G48" si="3">$C$29/F29</f>
-        <v>7272.365607</v>
+        <f t="shared" ref="G29:G48" si="2">$C$29/F29</f>
+        <v>7272.3656074394548</v>
       </c>
       <c r="H29" s="3">
-        <f t="shared" ref="H29:H48" si="4">G29/$C$30</f>
-        <v>0.189384521</v>
+        <f t="shared" ref="H29:H48" si="3">G29/$C$30</f>
+        <v>0.18938452102706912</v>
       </c>
       <c r="I29" s="3"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="5">
-        <v>38400.0</v>
+        <v>38400</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="5">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="F30" s="5">
-        <v>12.072</v>
+        <v>12.071999999999999</v>
       </c>
       <c r="G30" s="3">
+        <f t="shared" si="2"/>
+        <v>7268.3896620278338</v>
+      </c>
+      <c r="H30" s="3">
         <f t="shared" si="3"/>
-        <v>7268.389662</v>
-      </c>
-      <c r="H30" s="3">
-        <f t="shared" si="4"/>
-        <v>0.1892809808</v>
+        <v>0.18928098078197483</v>
       </c>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="F31" s="3">
-        <v>7.5097</v>
+        <v>7.5096999999999996</v>
       </c>
       <c r="G31" s="3">
+        <f t="shared" si="2"/>
+        <v>11684.088578771456</v>
+      </c>
+      <c r="H31" s="3">
         <f t="shared" si="3"/>
-        <v>11684.08858</v>
-      </c>
-      <c r="H31" s="3">
-        <f t="shared" si="4"/>
-        <v>0.3042731401</v>
+        <v>0.30427314007217332</v>
       </c>
       <c r="I31" s="8">
-        <v>41.0</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="F32" s="3">
         <v>7.4935</v>
       </c>
       <c r="G32" s="3">
+        <f t="shared" si="2"/>
+        <v>11709.348101688129</v>
+      </c>
+      <c r="H32" s="3">
         <f t="shared" si="3"/>
-        <v>11709.3481</v>
-      </c>
-      <c r="H32" s="3">
-        <f t="shared" si="4"/>
-        <v>0.3049309401</v>
+        <v>0.30493094014812833</v>
       </c>
       <c r="I32" s="8">
-        <v>41.0</v>
-      </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="5">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="F33" s="5">
-        <v>5.2379</v>
+        <v>5.2378999999999998</v>
       </c>
       <c r="G33" s="3">
+        <f t="shared" si="2"/>
+        <v>16751.751656198096</v>
+      </c>
+      <c r="H33" s="3">
         <f t="shared" si="3"/>
-        <v>16751.75166</v>
-      </c>
-      <c r="H33" s="3">
-        <f t="shared" si="4"/>
-        <v>0.4362435327</v>
+        <v>0.43624353271349209</v>
       </c>
       <c r="I33" s="3"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="5">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="F34" s="5">
-        <v>5.2177</v>
+        <v>5.2176999999999998</v>
       </c>
       <c r="G34" s="3">
+        <f t="shared" si="2"/>
+        <v>16816.605017536462</v>
+      </c>
+      <c r="H34" s="3">
         <f t="shared" si="3"/>
-        <v>16816.60502</v>
-      </c>
-      <c r="H34" s="3">
-        <f t="shared" si="4"/>
-        <v>0.4379324223</v>
+        <v>0.43793242233167867</v>
       </c>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="5">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="F35" s="5">
-        <v>4.0505</v>
+        <v>4.0505000000000004</v>
       </c>
       <c r="G35" s="3">
+        <f t="shared" si="2"/>
+        <v>21662.510801135661</v>
+      </c>
+      <c r="H35" s="3">
         <f t="shared" si="3"/>
-        <v>21662.5108</v>
-      </c>
-      <c r="H35" s="3">
-        <f t="shared" si="4"/>
-        <v>0.5641278854</v>
+        <v>0.56412788544624115</v>
       </c>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="5">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="F36" s="5">
-        <v>4.0604</v>
+        <v>4.0603999999999996</v>
       </c>
       <c r="G36" s="3">
+        <f t="shared" si="2"/>
+        <v>21609.693626243723</v>
+      </c>
+      <c r="H36" s="3">
         <f t="shared" si="3"/>
-        <v>21609.69363</v>
-      </c>
-      <c r="H36" s="3">
-        <f t="shared" si="4"/>
-        <v>0.5627524382</v>
+        <v>0.56275243818343024</v>
       </c>
       <c r="I36" s="3"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="5">
-        <v>128.0</v>
+        <v>128</v>
       </c>
       <c r="F37" s="5">
-        <v>3.4614</v>
+        <v>3.4613999999999998</v>
       </c>
       <c r="G37" s="3">
+        <f t="shared" si="2"/>
+        <v>25349.280637892185</v>
+      </c>
+      <c r="H37" s="3">
         <f t="shared" si="3"/>
-        <v>25349.28064</v>
-      </c>
-      <c r="H37" s="3">
-        <f t="shared" si="4"/>
-        <v>0.6601375166</v>
+        <v>0.66013751661177567</v>
       </c>
       <c r="I37" s="3"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="5">
-        <v>128.0</v>
+        <v>128</v>
       </c>
       <c r="F38" s="5">
-        <v>3.4583</v>
+        <v>3.4582999999999999</v>
       </c>
       <c r="G38" s="3">
+        <f t="shared" si="2"/>
+        <v>25372.003585576727</v>
+      </c>
+      <c r="H38" s="3">
         <f t="shared" si="3"/>
-        <v>25372.00359</v>
-      </c>
-      <c r="H38" s="3">
-        <f t="shared" si="4"/>
-        <v>0.66072926</v>
+        <v>0.66072926004106058</v>
       </c>
       <c r="I38" s="3"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3">
-        <v>256.0</v>
+        <v>256</v>
       </c>
       <c r="F39" s="3">
-        <v>3.1697</v>
+        <v>3.1697000000000002</v>
       </c>
       <c r="G39" s="3">
+        <f t="shared" si="2"/>
+        <v>27682.115026658674</v>
+      </c>
+      <c r="H39" s="3">
         <f t="shared" si="3"/>
-        <v>27682.11503</v>
-      </c>
-      <c r="H39" s="3">
-        <f t="shared" si="4"/>
-        <v>0.7208884122</v>
+        <v>0.7208884121525696</v>
       </c>
       <c r="I39" s="8">
-        <v>121.0</v>
-      </c>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3">
-        <v>256.0</v>
+        <v>256</v>
       </c>
       <c r="F40" s="3">
         <v>3.1692</v>
       </c>
       <c r="G40" s="3">
+        <f t="shared" si="2"/>
+        <v>27686.48239303294</v>
+      </c>
+      <c r="H40" s="3">
         <f t="shared" si="3"/>
-        <v>27686.48239</v>
-      </c>
-      <c r="H40" s="3">
-        <f t="shared" si="4"/>
-        <v>0.7210021457</v>
+        <v>0.72100214565189946</v>
       </c>
       <c r="I40" s="8">
-        <v>121.0</v>
-      </c>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3">
-        <v>512.0</v>
+        <v>512</v>
       </c>
       <c r="F41" s="3">
-        <v>3.0195</v>
+        <v>3.0194999999999999</v>
       </c>
       <c r="G41" s="3">
+        <f t="shared" si="2"/>
+        <v>29059.115747640339</v>
+      </c>
+      <c r="H41" s="3">
         <f t="shared" si="3"/>
-        <v>29059.11575</v>
-      </c>
-      <c r="H41" s="3">
-        <f t="shared" si="4"/>
-        <v>0.7567478059</v>
+        <v>0.75674780592813384</v>
       </c>
       <c r="I41" s="3"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3">
-        <v>512.0</v>
+        <v>512</v>
       </c>
       <c r="F42" s="3">
-        <v>3.0182</v>
+        <v>3.0182000000000002</v>
       </c>
       <c r="G42" s="3">
+        <f t="shared" si="2"/>
+        <v>29071.632098601815</v>
+      </c>
+      <c r="H42" s="3">
         <f t="shared" si="3"/>
-        <v>29071.6321</v>
-      </c>
-      <c r="H42" s="3">
-        <f t="shared" si="4"/>
-        <v>0.7570737526</v>
+        <v>0.75707375256775555</v>
       </c>
       <c r="I42" s="3"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="5"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3">
-        <v>1024.0</v>
+        <v>1024</v>
       </c>
       <c r="F43" s="3">
-        <v>2.9452</v>
+        <v>2.9451999999999998</v>
       </c>
       <c r="G43" s="3">
+        <f t="shared" si="2"/>
+        <v>29792.204264566077</v>
+      </c>
+      <c r="H43" s="3">
         <f t="shared" si="3"/>
-        <v>29792.20426</v>
-      </c>
-      <c r="H43" s="3">
-        <f t="shared" si="4"/>
-        <v>0.7758386527</v>
+        <v>0.77583865272307495</v>
       </c>
       <c r="I43" s="8">
-        <v>161.0</v>
-      </c>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3">
-        <v>1024.0</v>
+        <v>1024</v>
       </c>
       <c r="F44" s="3">
         <v>2.9455</v>
       </c>
       <c r="G44" s="3">
+        <f t="shared" si="2"/>
+        <v>29789.169920217282</v>
+      </c>
+      <c r="H44" s="3">
         <f t="shared" si="3"/>
-        <v>29789.16992</v>
-      </c>
-      <c r="H44" s="3">
-        <f t="shared" si="4"/>
-        <v>0.7757596333</v>
+        <v>0.77575963333899167</v>
       </c>
       <c r="I44" s="8">
-        <v>161.0</v>
-      </c>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3">
-        <v>10968.0</v>
+        <v>10968</v>
       </c>
       <c r="F45" s="3">
         <v>2.8769</v>
       </c>
       <c r="G45" s="3">
+        <f t="shared" si="2"/>
+        <v>30499.495985261914</v>
+      </c>
+      <c r="H45" s="3">
         <f t="shared" si="3"/>
-        <v>30499.49599</v>
-      </c>
-      <c r="H45" s="3">
-        <f t="shared" si="4"/>
-        <v>0.7942577079</v>
+        <v>0.79425770794952899</v>
       </c>
       <c r="I45" s="8">
-        <v>181.0</v>
-      </c>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3">
-        <v>10968.0</v>
+        <v>10968</v>
       </c>
       <c r="F46" s="3">
-        <v>2.8765</v>
+        <v>2.8765000000000001</v>
       </c>
       <c r="G46" s="3">
+        <f t="shared" si="2"/>
+        <v>30503.737180601423</v>
+      </c>
+      <c r="H46" s="3">
         <f t="shared" si="3"/>
-        <v>30503.73718</v>
-      </c>
-      <c r="H46" s="3">
-        <f t="shared" si="4"/>
-        <v>0.7943681557</v>
+        <v>0.79436815574482877</v>
       </c>
       <c r="I46" s="8">
-        <v>181.0</v>
-      </c>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3">
-        <v>131072.0</v>
+        <v>131072</v>
       </c>
       <c r="F47" s="3">
-        <v>2.877</v>
+        <v>2.8769999999999998</v>
       </c>
       <c r="G47" s="3">
+        <f t="shared" si="2"/>
+        <v>30498.435870698646</v>
+      </c>
+      <c r="H47" s="3">
         <f t="shared" si="3"/>
-        <v>30498.43587</v>
-      </c>
-      <c r="H47" s="3">
-        <f t="shared" si="4"/>
-        <v>0.7942301008</v>
+        <v>0.79423010079944389</v>
       </c>
       <c r="I47" s="8">
-        <v>201.0</v>
-      </c>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3">
-        <v>131072.0</v>
+        <v>131072</v>
       </c>
       <c r="F48" s="3">
-        <v>2.877</v>
+        <v>2.8769999999999998</v>
       </c>
       <c r="G48" s="3">
+        <f t="shared" si="2"/>
+        <v>30498.435870698646</v>
+      </c>
+      <c r="H48" s="3">
         <f t="shared" si="3"/>
-        <v>30498.43587</v>
-      </c>
-      <c r="H48" s="3">
-        <f t="shared" si="4"/>
-        <v>0.7942301008</v>
+        <v>0.79423010079944389</v>
       </c>
       <c r="I48" s="8">
-        <v>201.0</v>
-      </c>
-    </row>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>27</v>
       </c>
@@ -1741,13 +5006,13 @@
       <c r="H53" s="9"/>
       <c r="I53" s="9"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="54" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C55" s="5">
-        <v>10968.0</v>
+        <v>10968</v>
       </c>
       <c r="E55" s="10" t="s">
         <v>8</v>
@@ -1762,276 +5027,277 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C56" s="5">
-        <v>87744.0</v>
+        <v>87744</v>
       </c>
       <c r="E56">
-        <v>600.0</v>
+        <v>600</v>
       </c>
       <c r="F56">
-        <v>205.4266</v>
+        <v>205.42660000000001</v>
       </c>
       <c r="G56" s="3">
-        <f t="shared" ref="G56:G71" si="5">$C$56/F56</f>
-        <v>427.1306637</v>
+        <f>$C$56/F56</f>
+        <v>427.13066370177961</v>
       </c>
       <c r="H56" s="3">
-        <f t="shared" ref="H56:H71" si="6">G56/E56</f>
-        <v>0.7118844395</v>
-      </c>
-    </row>
-    <row r="57" ht="15.75" customHeight="1">
+        <f>G56/E56</f>
+        <v>0.71188443950296598</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C57" s="5">
-        <v>128.0</v>
+        <v>128</v>
       </c>
       <c r="E57">
-        <v>600.0</v>
+        <v>600</v>
       </c>
       <c r="F57">
-        <v>206.147</v>
+        <v>206.14699999999999</v>
       </c>
       <c r="G57" s="3">
+        <f t="shared" ref="G56:G71" si="4">$C$56/F57</f>
+        <v>425.63801559081628</v>
+      </c>
+      <c r="H57" s="3">
+        <f t="shared" ref="H57:H71" si="5">G57/E57</f>
+        <v>0.70939669265136052</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E58">
+        <v>1200</v>
+      </c>
+      <c r="F58">
+        <v>102.78489999999999</v>
+      </c>
+      <c r="G58" s="3">
+        <f t="shared" si="4"/>
+        <v>853.66624864158064</v>
+      </c>
+      <c r="H58" s="3">
         <f t="shared" si="5"/>
-        <v>425.6380156</v>
-      </c>
-      <c r="H57" s="3">
-        <f t="shared" si="6"/>
-        <v>0.7093966927</v>
-      </c>
-    </row>
-    <row r="58" ht="15.75" customHeight="1">
-      <c r="E58">
-        <v>1200.0</v>
-      </c>
-      <c r="F58">
-        <v>102.7849</v>
-      </c>
-      <c r="G58" s="3">
-        <f t="shared" si="5"/>
-        <v>853.6662486</v>
-      </c>
-      <c r="H58" s="3">
-        <f t="shared" si="6"/>
-        <v>0.7113885405</v>
-      </c>
-    </row>
-    <row r="59" ht="15.75" customHeight="1">
+        <v>0.7113885405346505</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E59">
-        <v>1200.0</v>
+        <v>1200</v>
       </c>
       <c r="F59">
         <v>102.7848</v>
       </c>
       <c r="G59" s="3">
+        <f t="shared" si="4"/>
+        <v>853.66707917902249</v>
+      </c>
+      <c r="H59" s="3">
         <f t="shared" si="5"/>
-        <v>853.6670792</v>
-      </c>
-      <c r="H59" s="3">
-        <f t="shared" si="6"/>
-        <v>0.7113892326</v>
-      </c>
-    </row>
-    <row r="60" ht="15.75" customHeight="1">
+        <v>0.71138923264918541</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E60">
-        <v>1800.0</v>
+        <v>1800</v>
       </c>
       <c r="F60">
-        <v>68.5738</v>
+        <v>68.573800000000006</v>
       </c>
       <c r="G60" s="3">
+        <f t="shared" si="4"/>
+        <v>1279.5557486970242</v>
+      </c>
+      <c r="H60" s="3">
         <f t="shared" si="5"/>
-        <v>1279.555749</v>
-      </c>
-      <c r="H60" s="3">
-        <f t="shared" si="6"/>
-        <v>0.7108643048</v>
-      </c>
-    </row>
-    <row r="61" ht="15.75" customHeight="1">
+        <v>0.71086430483168017</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E61">
-        <v>1800.0</v>
+        <v>1800</v>
       </c>
       <c r="F61">
-        <v>68.5733</v>
+        <v>68.573300000000003</v>
       </c>
       <c r="G61" s="3">
+        <f t="shared" si="4"/>
+        <v>1279.5650785363982</v>
+      </c>
+      <c r="H61" s="3">
         <f t="shared" si="5"/>
-        <v>1279.565079</v>
-      </c>
-      <c r="H61" s="3">
-        <f t="shared" si="6"/>
-        <v>0.7108694881</v>
-      </c>
-    </row>
-    <row r="62" ht="15.75" customHeight="1">
+        <v>0.71086948807577677</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E62">
-        <v>2400.0</v>
+        <v>2400</v>
       </c>
       <c r="F62">
-        <v>52.9261</v>
+        <v>52.926099999999998</v>
       </c>
       <c r="G62" s="3">
+        <f t="shared" si="4"/>
+        <v>1657.858788008185</v>
+      </c>
+      <c r="H62" s="3">
         <f t="shared" si="5"/>
-        <v>1657.858788</v>
-      </c>
-      <c r="H62" s="3">
-        <f t="shared" si="6"/>
-        <v>0.690774495</v>
-      </c>
-    </row>
-    <row r="63" ht="15.75" customHeight="1">
+        <v>0.69077449500341037</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E63">
-        <v>2400.0</v>
+        <v>2400</v>
       </c>
       <c r="F63">
-        <v>52.9272</v>
+        <v>52.927199999999999</v>
       </c>
       <c r="G63" s="3">
+        <f t="shared" si="4"/>
+        <v>1657.8243322903913</v>
+      </c>
+      <c r="H63" s="3">
         <f t="shared" si="5"/>
-        <v>1657.824332</v>
-      </c>
-      <c r="H63" s="3">
-        <f t="shared" si="6"/>
-        <v>0.6907601385</v>
-      </c>
-    </row>
-    <row r="64" ht="15.75" customHeight="1">
+        <v>0.69076013845432971</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E64">
-        <v>4800.0</v>
+        <v>4800</v>
       </c>
       <c r="F64">
         <v>26.5564</v>
       </c>
       <c r="G64" s="3">
+        <f t="shared" si="4"/>
+        <v>3304.0622976005784</v>
+      </c>
+      <c r="H64" s="3">
         <f t="shared" si="5"/>
-        <v>3304.062298</v>
-      </c>
-      <c r="H64" s="3">
-        <f t="shared" si="6"/>
-        <v>0.688346312</v>
-      </c>
-    </row>
-    <row r="65" ht="15.75" customHeight="1">
+        <v>0.68834631200012053</v>
+      </c>
+    </row>
+    <row r="65" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E65">
-        <v>4800.0</v>
+        <v>4800</v>
       </c>
       <c r="F65">
-        <v>26.5583</v>
+        <v>26.558299999999999</v>
       </c>
       <c r="G65" s="3">
+        <f t="shared" si="4"/>
+        <v>3303.8259225929373</v>
+      </c>
+      <c r="H65" s="3">
         <f t="shared" si="5"/>
-        <v>3303.825923</v>
-      </c>
-      <c r="H65" s="3">
-        <f t="shared" si="6"/>
-        <v>0.6882970672</v>
-      </c>
-    </row>
-    <row r="66" ht="15.75" customHeight="1">
+        <v>0.6882970672068619</v>
+      </c>
+    </row>
+    <row r="66" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E66">
-        <v>9600.0</v>
+        <v>9600</v>
       </c>
       <c r="F66">
-        <v>13.376</v>
+        <v>13.375999999999999</v>
       </c>
       <c r="G66" s="3">
+        <f t="shared" si="4"/>
+        <v>6559.8086124401916</v>
+      </c>
+      <c r="H66" s="3">
         <f t="shared" si="5"/>
-        <v>6559.808612</v>
-      </c>
-      <c r="H66" s="3">
-        <f t="shared" si="6"/>
-        <v>0.6833133971</v>
-      </c>
-    </row>
-    <row r="67" ht="15.75" customHeight="1">
+        <v>0.68331339712918659</v>
+      </c>
+    </row>
+    <row r="67" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E67">
-        <v>9600.0</v>
+        <v>9600</v>
       </c>
       <c r="F67">
-        <v>13.3717</v>
+        <v>13.371700000000001</v>
       </c>
       <c r="G67" s="3">
+        <f t="shared" si="4"/>
+        <v>6561.9180807227203</v>
+      </c>
+      <c r="H67" s="3">
         <f t="shared" si="5"/>
-        <v>6561.918081</v>
-      </c>
-      <c r="H67" s="3">
-        <f t="shared" si="6"/>
-        <v>0.6835331334</v>
-      </c>
-    </row>
-    <row r="68" ht="15.75" customHeight="1">
+        <v>0.68353313340861666</v>
+      </c>
+    </row>
+    <row r="68" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E68">
-        <v>19200.0</v>
+        <v>19200</v>
       </c>
       <c r="F68">
-        <v>6.7767</v>
+        <v>6.7766999999999999</v>
       </c>
       <c r="G68" s="3">
+        <f t="shared" si="4"/>
+        <v>12947.894993138254</v>
+      </c>
+      <c r="H68" s="3">
         <f t="shared" si="5"/>
-        <v>12947.89499</v>
-      </c>
-      <c r="H68" s="3">
-        <f t="shared" si="6"/>
-        <v>0.6743695309</v>
-      </c>
-    </row>
-    <row r="69" ht="15.75" customHeight="1">
+        <v>0.67436953089261742</v>
+      </c>
+    </row>
+    <row r="69" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E69">
-        <v>19200.0</v>
+        <v>19200</v>
       </c>
       <c r="F69">
-        <v>6.7863</v>
+        <v>6.7862999999999998</v>
       </c>
       <c r="G69" s="3">
+        <f t="shared" si="4"/>
+        <v>12929.578710048187</v>
+      </c>
+      <c r="H69" s="3">
         <f t="shared" si="5"/>
-        <v>12929.57871</v>
-      </c>
-      <c r="H69" s="3">
-        <f t="shared" si="6"/>
-        <v>0.6734155578</v>
-      </c>
-    </row>
-    <row r="70" ht="15.75" customHeight="1">
+        <v>0.67341555781500972</v>
+      </c>
+    </row>
+    <row r="70" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E70">
-        <v>38400.0</v>
+        <v>38400</v>
       </c>
       <c r="F70">
-        <v>3.4666</v>
+        <v>3.4666000000000001</v>
       </c>
       <c r="G70" s="3">
+        <f t="shared" si="4"/>
+        <v>25311.255985692031</v>
+      </c>
+      <c r="H70" s="3">
         <f t="shared" si="5"/>
-        <v>25311.25599</v>
-      </c>
-      <c r="H70" s="3">
-        <f t="shared" si="6"/>
-        <v>0.6591472913</v>
-      </c>
-    </row>
-    <row r="71" ht="15.75" customHeight="1">
+        <v>0.65914729129406335</v>
+      </c>
+    </row>
+    <row r="71" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E71">
-        <v>38400.0</v>
+        <v>38400</v>
       </c>
       <c r="F71">
         <v>3.4661</v>
       </c>
       <c r="G71" s="3">
+        <f t="shared" si="4"/>
+        <v>25314.907244453421</v>
+      </c>
+      <c r="H71" s="3">
         <f t="shared" si="5"/>
-        <v>25314.90724</v>
-      </c>
-      <c r="H71" s="3">
-        <f t="shared" si="6"/>
-        <v>0.6592423762</v>
-      </c>
-    </row>
-    <row r="72" ht="15.75" customHeight="1"/>
+        <v>0.65924237615764114</v>
+      </c>
+    </row>
+    <row r="72" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/projeto 1/testes.xlsx
+++ b/projeto 1/testes.xlsx
@@ -21,16 +21,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
   <si>
-    <t>VARIAR % ERROS (FER)</t>
-  </si>
-  <si>
     <t>Nº total de bytes</t>
   </si>
   <si>
     <t>Probabilidade de erro (%bcc1 +%bcc2)</t>
-  </si>
-  <si>
-    <t>tempo (s)</t>
   </si>
   <si>
     <t>R (bits/tempo)</t>
@@ -104,6 +98,12 @@
   <si>
     <t>VARIAR C (BAUDRATE)</t>
   </si>
+  <si>
+    <t>Tempo (s)</t>
+  </si>
+  <si>
+    <t>VARIAR  ERROS DE BCC1 E BCC2  (FER)</t>
+  </si>
 </sst>
 </file>
 
@@ -141,7 +141,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -150,12 +150,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
+        <fgColor theme="0"/>
         <bgColor rgb="FFDDDDDD"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -170,27 +182,95 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -407,7 +487,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Folha1!$E$7:$E$22</c:f>
+              <c:f>Folha1!$E$6:$E$21</c:f>
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
@@ -463,7 +543,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Folha1!$H$7:$H$22</c:f>
+              <c:f>Folha1!$H$6:$H$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -940,7 +1020,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Folha1!$E$29:$E$48</c:f>
+              <c:f>Folha1!$E$28:$E$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1009,7 +1089,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Folha1!$H$29:$H$48</c:f>
+              <c:f>Folha1!$H$28:$H$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1181,8 +1261,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1577,7 +1658,7 @@
           </c:dPt>
           <c:xVal>
             <c:numRef>
-              <c:f>Folha1!$E$56:$E$71</c:f>
+              <c:f>Folha1!$E$55:$E$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1634,7 +1715,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Folha1!$H$56:$H$71</c:f>
+              <c:f>Folha1!$H$55:$H$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1790,8 +1871,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -3678,13 +3760,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>149678</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>97969</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>340178</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>13607</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3714,13 +3796,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>340177</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>84364</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>476249</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3750,13 +3832,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1686486</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>146796</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>302559</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>56029</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4082,18 +4164,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I72"/>
+  <dimension ref="B1:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K63" sqref="K63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="34.140625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="48.28515625" customWidth="1"/>
     <col min="3" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="38" customWidth="1"/>
+    <col min="5" max="5" width="46.7109375" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" customWidth="1"/>
     <col min="7" max="7" width="18.5703125" customWidth="1"/>
     <col min="8" max="9" width="13.5703125" customWidth="1"/>
@@ -4102,1200 +4184,1261 @@
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="14">
+        <v>38400</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="14">
+        <v>87744</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="14">
+        <v>3.4626000000000001</v>
+      </c>
+      <c r="G6" s="12">
+        <f>$C$6/F6</f>
+        <v>25340.495581355051</v>
+      </c>
+      <c r="H6" s="12">
+        <f>G6/$C$5</f>
+        <v>0.6599087390977878</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="C7" s="14">
         <v>10968</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="6" t="s">
+      <c r="D7" s="16"/>
+      <c r="E7" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="14">
+        <v>6.5564</v>
+      </c>
+      <c r="G7" s="12">
+        <f>$C$6/F7</f>
+        <v>13382.954060154963</v>
+      </c>
+      <c r="H7" s="12">
+        <f>G7/$C$5</f>
+        <v>0.34851442864986881</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="14">
+        <v>128</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="14">
+        <v>3.5367999999999999</v>
+      </c>
+      <c r="G8" s="12">
+        <f>$C$6/F8</f>
+        <v>24808.866772223479</v>
+      </c>
+      <c r="H8" s="12">
+        <f>G8/$C$5</f>
+        <v>0.64606423885998643</v>
+      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="14">
+        <v>6.5983000000000001</v>
+      </c>
+      <c r="G9" s="12">
+        <f>$C$6/F9</f>
+        <v>13297.970689420003</v>
+      </c>
+      <c r="H9" s="12">
+        <f>G9/$C$5</f>
+        <v>0.34630132003697922</v>
+      </c>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="14">
+        <v>12.868399999999999</v>
+      </c>
+      <c r="G10" s="12">
+        <f>$C$6/F10</f>
+        <v>6818.5633023530509</v>
+      </c>
+      <c r="H10" s="12">
+        <f>G10/$C$5</f>
+        <v>0.17756675266544403</v>
+      </c>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="14">
+        <v>12.708600000000001</v>
+      </c>
+      <c r="G11" s="12">
+        <f>$C$6/F11</f>
+        <v>6904.3010245030919</v>
+      </c>
+      <c r="H11" s="12">
+        <f>G11/$C$5</f>
+        <v>0.17979950584643467</v>
+      </c>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="14">
+        <v>12.9483</v>
+      </c>
+      <c r="G12" s="12">
+        <f>$C$6/F12</f>
+        <v>6776.4880331781005</v>
+      </c>
+      <c r="H12" s="12">
+        <f>G12/$C$5</f>
+        <v>0.17647104253067969</v>
+      </c>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="14">
+        <v>16.042200000000001</v>
+      </c>
+      <c r="G13" s="12">
+        <f>$C$6/F13</f>
+        <v>5469.5739985787486</v>
+      </c>
+      <c r="H13" s="12">
+        <f>G13/$C$5</f>
+        <v>0.14243682287965492</v>
+      </c>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="14">
+        <v>13.029500000000001</v>
+      </c>
+      <c r="G14" s="12">
+        <f>$C$6/F14</f>
+        <v>6734.2568786215888</v>
+      </c>
+      <c r="H14" s="12">
+        <f>G14/$C$5</f>
+        <v>0.17537127288077053</v>
+      </c>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="14">
+        <v>19.186299999999999</v>
+      </c>
+      <c r="G15" s="12">
+        <f>$C$6/F15</f>
+        <v>4573.2632138557201</v>
+      </c>
+      <c r="H15" s="12">
+        <f>G15/$C$5</f>
+        <v>0.11909539619415938</v>
+      </c>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="14">
+        <v>31.567900000000002</v>
+      </c>
+      <c r="G16" s="12">
+        <f>$C$6/F16</f>
+        <v>2779.5323730751807</v>
+      </c>
+      <c r="H16" s="12">
+        <f>G16/$C$5</f>
+        <v>7.2383655548832831E-2</v>
+      </c>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="14">
+        <v>25.3904</v>
+      </c>
+      <c r="G17" s="12">
+        <f>$C$6/F17</f>
+        <v>3455.7943159619385</v>
+      </c>
+      <c r="H17" s="12">
+        <f>G17/$C$5</f>
+        <v>8.9994643644842151E-2</v>
+      </c>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="12">
+        <v>34.714799999999997</v>
+      </c>
+      <c r="G18" s="12">
+        <f>$C$6/F18</f>
+        <v>2527.567492827267</v>
+      </c>
+      <c r="H18" s="12">
+        <f>G18/$C$5</f>
+        <v>6.5822070125710078E-2</v>
+      </c>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="12">
+        <v>47.333199999999998</v>
+      </c>
+      <c r="G19" s="12">
+        <f>$C$6/F19</f>
+        <v>1853.7517007090162</v>
+      </c>
+      <c r="H19" s="12">
+        <f>G19/$C$5</f>
+        <v>4.8274783872630629E-2</v>
+      </c>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="12">
+        <v>37.852899999999998</v>
+      </c>
+      <c r="G20" s="12">
+        <f>$C$6/F20</f>
+        <v>2318.0258315743313</v>
+      </c>
+      <c r="H20" s="12">
+        <f>G20/$C$5</f>
+        <v>6.0365256030581543E-2</v>
+      </c>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="12">
+        <v>50.137900000000002</v>
+      </c>
+      <c r="G21" s="12">
+        <f>$C$6/F21</f>
+        <v>1750.0533528528317</v>
+      </c>
+      <c r="H21" s="12">
+        <f>G21/$C$5</f>
+        <v>4.5574306063875823E-2</v>
+      </c>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="14">
+        <v>38400</v>
+      </c>
+      <c r="D27" s="16"/>
+      <c r="E27" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="H27" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="5">
+      <c r="C28" s="14">
         <v>87744</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="5">
-        <v>3.4626000000000001</v>
-      </c>
-      <c r="G7" s="3">
-        <f t="shared" ref="G7:G22" si="0">$C$7/F7</f>
-        <v>25340.495581355051</v>
-      </c>
-      <c r="H7" s="3">
-        <f t="shared" ref="H7:H22" si="1">G7/$C$8</f>
-        <v>0.6599087390977878</v>
-      </c>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
+      <c r="D28" s="16"/>
+      <c r="E28" s="14">
         <v>8</v>
       </c>
-      <c r="C8" s="5">
-        <v>38400</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="5">
-        <v>6.5564</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="F28" s="14">
+        <v>12.0654</v>
+      </c>
+      <c r="G28" s="12">
+        <f>$C$28/F28</f>
+        <v>7272.3656074394548</v>
+      </c>
+      <c r="H28" s="12">
+        <f>G28/$C$27</f>
+        <v>0.18938452102706912</v>
+      </c>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="14">
+        <v>10968</v>
+      </c>
+      <c r="D29" s="16"/>
+      <c r="E29" s="14">
+        <v>8</v>
+      </c>
+      <c r="F29" s="14">
+        <v>12.071999999999999</v>
+      </c>
+      <c r="G29" s="12">
+        <f t="shared" ref="G29:G47" si="0">$C$28/F29</f>
+        <v>7268.3896620278338</v>
+      </c>
+      <c r="H29" s="12">
+        <f t="shared" ref="H29:H47" si="1">G29/$C$27</f>
+        <v>0.18928098078197483</v>
+      </c>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="12">
+        <v>16</v>
+      </c>
+      <c r="F30" s="12">
+        <v>7.5096999999999996</v>
+      </c>
+      <c r="G30" s="12">
         <f t="shared" si="0"/>
-        <v>13382.954060154963</v>
-      </c>
-      <c r="H8" s="3">
+        <v>11684.088578771456</v>
+      </c>
+      <c r="H30" s="12">
         <f t="shared" si="1"/>
-        <v>0.34851442864986881</v>
-      </c>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="5">
+        <v>0.30427314007217332</v>
+      </c>
+      <c r="I30" s="3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="12">
+        <v>16</v>
+      </c>
+      <c r="F31" s="12">
+        <v>7.4935</v>
+      </c>
+      <c r="G31" s="12">
+        <f t="shared" si="0"/>
+        <v>11709.348101688129</v>
+      </c>
+      <c r="H31" s="12">
+        <f t="shared" si="1"/>
+        <v>0.30493094014812833</v>
+      </c>
+      <c r="I31" s="3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="14">
+        <v>32</v>
+      </c>
+      <c r="F32" s="14">
+        <v>5.2378999999999998</v>
+      </c>
+      <c r="G32" s="12">
+        <f t="shared" si="0"/>
+        <v>16751.751656198096</v>
+      </c>
+      <c r="H32" s="12">
+        <f t="shared" si="1"/>
+        <v>0.43624353271349209</v>
+      </c>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="14">
+        <v>32</v>
+      </c>
+      <c r="F33" s="14">
+        <v>5.2176999999999998</v>
+      </c>
+      <c r="G33" s="12">
+        <f t="shared" si="0"/>
+        <v>16816.605017536462</v>
+      </c>
+      <c r="H33" s="12">
+        <f t="shared" si="1"/>
+        <v>0.43793242233167867</v>
+      </c>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="14">
+        <v>64</v>
+      </c>
+      <c r="F34" s="14">
+        <v>4.0505000000000004</v>
+      </c>
+      <c r="G34" s="12">
+        <f t="shared" si="0"/>
+        <v>21662.510801135661</v>
+      </c>
+      <c r="H34" s="12">
+        <f t="shared" si="1"/>
+        <v>0.56412788544624115</v>
+      </c>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="14">
+        <v>64</v>
+      </c>
+      <c r="F35" s="14">
+        <v>4.0603999999999996</v>
+      </c>
+      <c r="G35" s="12">
+        <f t="shared" si="0"/>
+        <v>21609.693626243723</v>
+      </c>
+      <c r="H35" s="12">
+        <f t="shared" si="1"/>
+        <v>0.56275243818343024</v>
+      </c>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="14">
         <v>128</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="5">
-        <v>3.5367999999999999</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="F36" s="14">
+        <v>3.4613999999999998</v>
+      </c>
+      <c r="G36" s="12">
         <f t="shared" si="0"/>
-        <v>24808.866772223479</v>
-      </c>
-      <c r="H9" s="3">
+        <v>25349.280637892185</v>
+      </c>
+      <c r="H36" s="12">
         <f t="shared" si="1"/>
-        <v>0.64606423885998643</v>
-      </c>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="5">
-        <v>6.5983000000000001</v>
-      </c>
-      <c r="G10" s="3">
+        <v>0.66013751661177567</v>
+      </c>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="14">
+        <v>128</v>
+      </c>
+      <c r="F37" s="14">
+        <v>3.4582999999999999</v>
+      </c>
+      <c r="G37" s="12">
         <f t="shared" si="0"/>
-        <v>13297.970689420003</v>
-      </c>
-      <c r="H10" s="3">
+        <v>25372.003585576727</v>
+      </c>
+      <c r="H37" s="12">
         <f t="shared" si="1"/>
-        <v>0.34630132003697922</v>
-      </c>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="5">
-        <v>12.868399999999999</v>
-      </c>
-      <c r="G11" s="3">
+        <v>0.66072926004106058</v>
+      </c>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="12">
+        <v>256</v>
+      </c>
+      <c r="F38" s="12">
+        <v>3.1697000000000002</v>
+      </c>
+      <c r="G38" s="12">
         <f t="shared" si="0"/>
-        <v>6818.5633023530509</v>
-      </c>
-      <c r="H11" s="3">
+        <v>27682.115026658674</v>
+      </c>
+      <c r="H38" s="12">
         <f t="shared" si="1"/>
-        <v>0.17756675266544403</v>
-      </c>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="5">
-        <v>12.708600000000001</v>
-      </c>
-      <c r="G12" s="3">
+        <v>0.7208884121525696</v>
+      </c>
+      <c r="I38" s="3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="12">
+        <v>256</v>
+      </c>
+      <c r="F39" s="12">
+        <v>3.1692</v>
+      </c>
+      <c r="G39" s="12">
         <f t="shared" si="0"/>
-        <v>6904.3010245030919</v>
-      </c>
-      <c r="H12" s="3">
+        <v>27686.48239303294</v>
+      </c>
+      <c r="H39" s="12">
         <f t="shared" si="1"/>
-        <v>0.17979950584643467</v>
-      </c>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="5">
-        <v>12.9483</v>
-      </c>
-      <c r="G13" s="3">
+        <v>0.72100214565189946</v>
+      </c>
+      <c r="I39" s="3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="12">
+        <v>512</v>
+      </c>
+      <c r="F40" s="12">
+        <v>3.0194999999999999</v>
+      </c>
+      <c r="G40" s="12">
         <f t="shared" si="0"/>
-        <v>6776.4880331781005</v>
-      </c>
-      <c r="H13" s="3">
+        <v>29059.115747640339</v>
+      </c>
+      <c r="H40" s="12">
         <f t="shared" si="1"/>
-        <v>0.17647104253067969</v>
-      </c>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="5">
-        <v>16.042200000000001</v>
-      </c>
-      <c r="G14" s="3">
+        <v>0.75674780592813384</v>
+      </c>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="12">
+        <v>512</v>
+      </c>
+      <c r="F41" s="12">
+        <v>3.0182000000000002</v>
+      </c>
+      <c r="G41" s="12">
         <f t="shared" si="0"/>
-        <v>5469.5739985787486</v>
-      </c>
-      <c r="H14" s="3">
+        <v>29071.632098601815</v>
+      </c>
+      <c r="H41" s="12">
         <f t="shared" si="1"/>
-        <v>0.14243682287965492</v>
-      </c>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="5">
-        <v>13.029500000000001</v>
-      </c>
-      <c r="G15" s="3">
+        <v>0.75707375256775555</v>
+      </c>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="17"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="12">
+        <v>1024</v>
+      </c>
+      <c r="F42" s="12">
+        <v>2.9451999999999998</v>
+      </c>
+      <c r="G42" s="12">
         <f t="shared" si="0"/>
-        <v>6734.2568786215888</v>
-      </c>
-      <c r="H15" s="3">
+        <v>29792.204264566077</v>
+      </c>
+      <c r="H42" s="12">
         <f t="shared" si="1"/>
-        <v>0.17537127288077053</v>
-      </c>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="5">
-        <v>19.186299999999999</v>
-      </c>
-      <c r="G16" s="3">
+        <v>0.77583865272307495</v>
+      </c>
+      <c r="I42" s="3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="12">
+        <v>1024</v>
+      </c>
+      <c r="F43" s="12">
+        <v>2.9455</v>
+      </c>
+      <c r="G43" s="12">
         <f t="shared" si="0"/>
-        <v>4573.2632138557201</v>
-      </c>
-      <c r="H16" s="3">
+        <v>29789.169920217282</v>
+      </c>
+      <c r="H43" s="12">
         <f t="shared" si="1"/>
-        <v>0.11909539619415938</v>
-      </c>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="5">
-        <v>31.567900000000002</v>
-      </c>
-      <c r="G17" s="3">
+        <v>0.77575963333899167</v>
+      </c>
+      <c r="I43" s="3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="12">
+        <v>10968</v>
+      </c>
+      <c r="F44" s="12">
+        <v>2.8769</v>
+      </c>
+      <c r="G44" s="12">
         <f t="shared" si="0"/>
-        <v>2779.5323730751807</v>
-      </c>
-      <c r="H17" s="3">
+        <v>30499.495985261914</v>
+      </c>
+      <c r="H44" s="12">
         <f t="shared" si="1"/>
-        <v>7.2383655548832831E-2</v>
-      </c>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="5">
-        <v>25.3904</v>
-      </c>
-      <c r="G18" s="3">
+        <v>0.79425770794952899</v>
+      </c>
+      <c r="I44" s="3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="12">
+        <v>10968</v>
+      </c>
+      <c r="F45" s="12">
+        <v>2.8765000000000001</v>
+      </c>
+      <c r="G45" s="12">
         <f t="shared" si="0"/>
-        <v>3455.7943159619385</v>
-      </c>
-      <c r="H18" s="3">
+        <v>30503.737180601423</v>
+      </c>
+      <c r="H45" s="12">
         <f t="shared" si="1"/>
-        <v>8.9994643644842151E-2</v>
-      </c>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="3">
-        <v>34.714799999999997</v>
-      </c>
-      <c r="G19" s="3">
+        <v>0.79436815574482877</v>
+      </c>
+      <c r="I45" s="3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="12">
+        <v>131072</v>
+      </c>
+      <c r="F46" s="12">
+        <v>2.8769999999999998</v>
+      </c>
+      <c r="G46" s="12">
         <f t="shared" si="0"/>
-        <v>2527.567492827267</v>
-      </c>
-      <c r="H19" s="3">
+        <v>30498.435870698646</v>
+      </c>
+      <c r="H46" s="12">
         <f t="shared" si="1"/>
-        <v>6.5822070125710078E-2</v>
-      </c>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="3">
-        <v>47.333199999999998</v>
-      </c>
-      <c r="G20" s="3">
+        <v>0.79423010079944389</v>
+      </c>
+      <c r="I46" s="3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="12">
+        <v>131072</v>
+      </c>
+      <c r="F47" s="12">
+        <v>2.8769999999999998</v>
+      </c>
+      <c r="G47" s="12">
         <f t="shared" si="0"/>
-        <v>1853.7517007090162</v>
-      </c>
-      <c r="H20" s="3">
+        <v>30498.435870698646</v>
+      </c>
+      <c r="H47" s="12">
         <f t="shared" si="1"/>
-        <v>4.8274783872630629E-2</v>
-      </c>
-      <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="3">
-        <v>37.852899999999998</v>
-      </c>
-      <c r="G21" s="3">
-        <f t="shared" si="0"/>
-        <v>2318.0258315743313</v>
-      </c>
-      <c r="H21" s="3">
-        <f t="shared" si="1"/>
-        <v>6.0365256030581543E-2</v>
-      </c>
-      <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" s="3">
-        <v>50.137900000000002</v>
-      </c>
-      <c r="G22" s="3">
-        <f t="shared" si="0"/>
-        <v>1750.0533528528317</v>
-      </c>
-      <c r="H22" s="3">
-        <f t="shared" si="1"/>
-        <v>4.5574306063875823E-2</v>
-      </c>
-      <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-    </row>
-    <row r="28" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="5">
-        <v>10968</v>
-      </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I28" s="3"/>
-    </row>
-    <row r="29" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="5">
-        <v>87744</v>
-      </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="5">
-        <v>8</v>
-      </c>
-      <c r="F29" s="5">
-        <v>12.0654</v>
-      </c>
-      <c r="G29" s="3">
-        <f t="shared" ref="G29:G48" si="2">$C$29/F29</f>
-        <v>7272.3656074394548</v>
-      </c>
-      <c r="H29" s="3">
-        <f t="shared" ref="H29:H48" si="3">G29/$C$30</f>
-        <v>0.18938452102706912</v>
-      </c>
-      <c r="I29" s="3"/>
-    </row>
-    <row r="30" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="5">
-        <v>38400</v>
-      </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="5">
-        <v>8</v>
-      </c>
-      <c r="F30" s="5">
-        <v>12.071999999999999</v>
-      </c>
-      <c r="G30" s="3">
-        <f t="shared" si="2"/>
-        <v>7268.3896620278338</v>
-      </c>
-      <c r="H30" s="3">
-        <f t="shared" si="3"/>
-        <v>0.18928098078197483</v>
-      </c>
-      <c r="I30" s="3"/>
-    </row>
-    <row r="31" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3">
-        <v>16</v>
-      </c>
-      <c r="F31" s="3">
-        <v>7.5096999999999996</v>
-      </c>
-      <c r="G31" s="3">
-        <f t="shared" si="2"/>
-        <v>11684.088578771456</v>
-      </c>
-      <c r="H31" s="3">
-        <f t="shared" si="3"/>
-        <v>0.30427314007217332</v>
-      </c>
-      <c r="I31" s="8">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3">
-        <v>16</v>
-      </c>
-      <c r="F32" s="3">
-        <v>7.4935</v>
-      </c>
-      <c r="G32" s="3">
-        <f t="shared" si="2"/>
-        <v>11709.348101688129</v>
-      </c>
-      <c r="H32" s="3">
-        <f t="shared" si="3"/>
-        <v>0.30493094014812833</v>
-      </c>
-      <c r="I32" s="8">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="5">
-        <v>32</v>
-      </c>
-      <c r="F33" s="5">
-        <v>5.2378999999999998</v>
-      </c>
-      <c r="G33" s="3">
-        <f t="shared" si="2"/>
-        <v>16751.751656198096</v>
-      </c>
-      <c r="H33" s="3">
-        <f t="shared" si="3"/>
-        <v>0.43624353271349209</v>
-      </c>
-      <c r="I33" s="3"/>
-    </row>
-    <row r="34" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="5">
-        <v>32</v>
-      </c>
-      <c r="F34" s="5">
-        <v>5.2176999999999998</v>
-      </c>
-      <c r="G34" s="3">
-        <f t="shared" si="2"/>
-        <v>16816.605017536462</v>
-      </c>
-      <c r="H34" s="3">
-        <f t="shared" si="3"/>
-        <v>0.43793242233167867</v>
-      </c>
-      <c r="I34" s="3"/>
-    </row>
-    <row r="35" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="5">
-        <v>64</v>
-      </c>
-      <c r="F35" s="5">
-        <v>4.0505000000000004</v>
-      </c>
-      <c r="G35" s="3">
-        <f t="shared" si="2"/>
-        <v>21662.510801135661</v>
-      </c>
-      <c r="H35" s="3">
-        <f t="shared" si="3"/>
-        <v>0.56412788544624115</v>
-      </c>
-      <c r="I35" s="3"/>
-    </row>
-    <row r="36" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="5">
-        <v>64</v>
-      </c>
-      <c r="F36" s="5">
-        <v>4.0603999999999996</v>
-      </c>
-      <c r="G36" s="3">
-        <f t="shared" si="2"/>
-        <v>21609.693626243723</v>
-      </c>
-      <c r="H36" s="3">
-        <f t="shared" si="3"/>
-        <v>0.56275243818343024</v>
-      </c>
-      <c r="I36" s="3"/>
-    </row>
-    <row r="37" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="5">
-        <v>128</v>
-      </c>
-      <c r="F37" s="5">
-        <v>3.4613999999999998</v>
-      </c>
-      <c r="G37" s="3">
-        <f t="shared" si="2"/>
-        <v>25349.280637892185</v>
-      </c>
-      <c r="H37" s="3">
-        <f t="shared" si="3"/>
-        <v>0.66013751661177567</v>
-      </c>
-      <c r="I37" s="3"/>
-    </row>
-    <row r="38" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="5">
-        <v>128</v>
-      </c>
-      <c r="F38" s="5">
-        <v>3.4582999999999999</v>
-      </c>
-      <c r="G38" s="3">
-        <f t="shared" si="2"/>
-        <v>25372.003585576727</v>
-      </c>
-      <c r="H38" s="3">
-        <f t="shared" si="3"/>
-        <v>0.66072926004106058</v>
-      </c>
-      <c r="I38" s="3"/>
-    </row>
-    <row r="39" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3">
-        <v>256</v>
-      </c>
-      <c r="F39" s="3">
-        <v>3.1697000000000002</v>
-      </c>
-      <c r="G39" s="3">
-        <f t="shared" si="2"/>
-        <v>27682.115026658674</v>
-      </c>
-      <c r="H39" s="3">
-        <f t="shared" si="3"/>
-        <v>0.7208884121525696</v>
-      </c>
-      <c r="I39" s="8">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3">
-        <v>256</v>
-      </c>
-      <c r="F40" s="3">
-        <v>3.1692</v>
-      </c>
-      <c r="G40" s="3">
-        <f t="shared" si="2"/>
-        <v>27686.48239303294</v>
-      </c>
-      <c r="H40" s="3">
-        <f t="shared" si="3"/>
-        <v>0.72100214565189946</v>
-      </c>
-      <c r="I40" s="8">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3">
-        <v>512</v>
-      </c>
-      <c r="F41" s="3">
-        <v>3.0194999999999999</v>
-      </c>
-      <c r="G41" s="3">
-        <f t="shared" si="2"/>
-        <v>29059.115747640339</v>
-      </c>
-      <c r="H41" s="3">
-        <f t="shared" si="3"/>
-        <v>0.75674780592813384</v>
-      </c>
-      <c r="I41" s="3"/>
-    </row>
-    <row r="42" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3">
-        <v>512</v>
-      </c>
-      <c r="F42" s="3">
-        <v>3.0182000000000002</v>
-      </c>
-      <c r="G42" s="3">
-        <f t="shared" si="2"/>
-        <v>29071.632098601815</v>
-      </c>
-      <c r="H42" s="3">
-        <f t="shared" si="3"/>
-        <v>0.75707375256775555</v>
-      </c>
-      <c r="I42" s="3"/>
-    </row>
-    <row r="43" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="5"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3">
-        <v>1024</v>
-      </c>
-      <c r="F43" s="3">
-        <v>2.9451999999999998</v>
-      </c>
-      <c r="G43" s="3">
-        <f t="shared" si="2"/>
-        <v>29792.204264566077</v>
-      </c>
-      <c r="H43" s="3">
-        <f t="shared" si="3"/>
-        <v>0.77583865272307495</v>
-      </c>
-      <c r="I43" s="8">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3">
-        <v>1024</v>
-      </c>
-      <c r="F44" s="3">
-        <v>2.9455</v>
-      </c>
-      <c r="G44" s="3">
-        <f t="shared" si="2"/>
-        <v>29789.169920217282</v>
-      </c>
-      <c r="H44" s="3">
-        <f t="shared" si="3"/>
-        <v>0.77575963333899167</v>
-      </c>
-      <c r="I44" s="8">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3">
-        <v>10968</v>
-      </c>
-      <c r="F45" s="3">
-        <v>2.8769</v>
-      </c>
-      <c r="G45" s="3">
-        <f t="shared" si="2"/>
-        <v>30499.495985261914</v>
-      </c>
-      <c r="H45" s="3">
-        <f t="shared" si="3"/>
-        <v>0.79425770794952899</v>
-      </c>
-      <c r="I45" s="8">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3">
-        <v>10968</v>
-      </c>
-      <c r="F46" s="3">
-        <v>2.8765000000000001</v>
-      </c>
-      <c r="G46" s="3">
-        <f t="shared" si="2"/>
-        <v>30503.737180601423</v>
-      </c>
-      <c r="H46" s="3">
-        <f t="shared" si="3"/>
-        <v>0.79436815574482877</v>
-      </c>
-      <c r="I46" s="8">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3">
-        <v>131072</v>
-      </c>
-      <c r="F47" s="3">
-        <v>2.8769999999999998</v>
-      </c>
-      <c r="G47" s="3">
-        <f t="shared" si="2"/>
-        <v>30498.435870698646</v>
-      </c>
-      <c r="H47" s="3">
-        <f t="shared" si="3"/>
         <v>0.79423010079944389</v>
       </c>
-      <c r="I47" s="8">
+      <c r="I47" s="3">
         <v>201</v>
       </c>
     </row>
-    <row r="48" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3">
-        <v>131072</v>
-      </c>
-      <c r="F48" s="3">
-        <v>2.8769999999999998</v>
-      </c>
-      <c r="G48" s="3">
-        <f t="shared" si="2"/>
-        <v>30498.435870698646</v>
-      </c>
-      <c r="H48" s="3">
-        <f t="shared" si="3"/>
-        <v>0.79423010079944389</v>
-      </c>
-      <c r="I48" s="8">
-        <v>201</v>
-      </c>
-    </row>
+    <row r="48" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="49" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="50" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="51" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-    </row>
-    <row r="54" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C55" s="5">
+    <row r="52" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="8"/>
+    </row>
+    <row r="53" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="4"/>
+    </row>
+    <row r="54" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="14">
+        <v>87744</v>
+      </c>
+      <c r="D54" s="21"/>
+      <c r="E54" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F54" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G54" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H54" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I54" s="4"/>
+    </row>
+    <row r="55" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" s="14">
         <v>10968</v>
       </c>
-      <c r="E55" s="10" t="s">
+      <c r="D55" s="21"/>
+      <c r="E55" s="18">
+        <v>600</v>
+      </c>
+      <c r="F55" s="20">
+        <v>205.42660000000001</v>
+      </c>
+      <c r="G55" s="12">
+        <f>$C$54/F55</f>
+        <v>427.13066370177961</v>
+      </c>
+      <c r="H55" s="12">
+        <f>G55/E55</f>
+        <v>0.71188443950296598</v>
+      </c>
+      <c r="I55" s="4"/>
+    </row>
+    <row r="56" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F55" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H55" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" s="5">
-        <v>87744</v>
-      </c>
-      <c r="E56">
+      <c r="C56" s="14">
+        <v>128</v>
+      </c>
+      <c r="D56" s="21"/>
+      <c r="E56" s="18">
         <v>600</v>
       </c>
-      <c r="F56">
-        <v>205.42660000000001</v>
-      </c>
-      <c r="G56" s="3">
-        <f>$C$56/F56</f>
-        <v>427.13066370177961</v>
-      </c>
-      <c r="H56" s="3">
-        <f>G56/E56</f>
-        <v>0.71188443950296598</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C57" s="5">
-        <v>128</v>
-      </c>
-      <c r="E57">
-        <v>600</v>
-      </c>
-      <c r="F57">
+      <c r="F56" s="20">
         <v>206.14699999999999</v>
       </c>
-      <c r="G57" s="3">
-        <f t="shared" ref="G56:G71" si="4">$C$56/F57</f>
+      <c r="G56" s="12">
+        <f t="shared" ref="G56:G70" si="2">$C$54/F56</f>
         <v>425.63801559081628</v>
       </c>
-      <c r="H57" s="3">
-        <f t="shared" ref="H57:H71" si="5">G57/E57</f>
+      <c r="H56" s="12">
+        <f t="shared" ref="H56:H70" si="3">G56/E56</f>
         <v>0.70939669265136052</v>
       </c>
+      <c r="I56" s="4"/>
+    </row>
+    <row r="57" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="18">
+        <v>1200</v>
+      </c>
+      <c r="F57" s="20">
+        <v>102.78489999999999</v>
+      </c>
+      <c r="G57" s="12">
+        <f t="shared" si="2"/>
+        <v>853.66624864158064</v>
+      </c>
+      <c r="H57" s="12">
+        <f t="shared" si="3"/>
+        <v>0.7113885405346505</v>
+      </c>
+      <c r="I57" s="4"/>
     </row>
     <row r="58" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E58">
+      <c r="B58" s="21"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="18">
         <v>1200</v>
       </c>
-      <c r="F58">
-        <v>102.78489999999999</v>
-      </c>
-      <c r="G58" s="3">
-        <f t="shared" si="4"/>
-        <v>853.66624864158064</v>
-      </c>
-      <c r="H58" s="3">
-        <f t="shared" si="5"/>
-        <v>0.7113885405346505</v>
-      </c>
+      <c r="F58" s="20">
+        <v>102.7848</v>
+      </c>
+      <c r="G58" s="12">
+        <f t="shared" si="2"/>
+        <v>853.66707917902249</v>
+      </c>
+      <c r="H58" s="12">
+        <f t="shared" si="3"/>
+        <v>0.71138923264918541</v>
+      </c>
+      <c r="I58" s="4"/>
     </row>
     <row r="59" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E59">
-        <v>1200</v>
-      </c>
-      <c r="F59">
-        <v>102.7848</v>
-      </c>
-      <c r="G59" s="3">
-        <f t="shared" si="4"/>
-        <v>853.66707917902249</v>
-      </c>
-      <c r="H59" s="3">
-        <f t="shared" si="5"/>
-        <v>0.71138923264918541</v>
-      </c>
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="18">
+        <v>1800</v>
+      </c>
+      <c r="F59" s="20">
+        <v>68.573800000000006</v>
+      </c>
+      <c r="G59" s="12">
+        <f t="shared" si="2"/>
+        <v>1279.5557486970242</v>
+      </c>
+      <c r="H59" s="12">
+        <f t="shared" si="3"/>
+        <v>0.71086430483168017</v>
+      </c>
+      <c r="I59" s="4"/>
     </row>
     <row r="60" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E60">
+      <c r="B60" s="21"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="18">
         <v>1800</v>
       </c>
-      <c r="F60">
-        <v>68.573800000000006</v>
-      </c>
-      <c r="G60" s="3">
-        <f t="shared" si="4"/>
-        <v>1279.5557486970242</v>
-      </c>
-      <c r="H60" s="3">
-        <f t="shared" si="5"/>
-        <v>0.71086430483168017</v>
-      </c>
+      <c r="F60" s="20">
+        <v>68.573300000000003</v>
+      </c>
+      <c r="G60" s="12">
+        <f t="shared" si="2"/>
+        <v>1279.5650785363982</v>
+      </c>
+      <c r="H60" s="12">
+        <f t="shared" si="3"/>
+        <v>0.71086948807577677</v>
+      </c>
+      <c r="I60" s="4"/>
     </row>
     <row r="61" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E61">
-        <v>1800</v>
-      </c>
-      <c r="F61">
-        <v>68.573300000000003</v>
-      </c>
-      <c r="G61" s="3">
-        <f t="shared" si="4"/>
-        <v>1279.5650785363982</v>
-      </c>
-      <c r="H61" s="3">
-        <f t="shared" si="5"/>
-        <v>0.71086948807577677</v>
-      </c>
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="18">
+        <v>2400</v>
+      </c>
+      <c r="F61" s="20">
+        <v>52.926099999999998</v>
+      </c>
+      <c r="G61" s="12">
+        <f t="shared" si="2"/>
+        <v>1657.858788008185</v>
+      </c>
+      <c r="H61" s="12">
+        <f t="shared" si="3"/>
+        <v>0.69077449500341037</v>
+      </c>
+      <c r="I61" s="4"/>
     </row>
     <row r="62" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E62">
+      <c r="B62" s="21"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="18">
         <v>2400</v>
       </c>
-      <c r="F62">
-        <v>52.926099999999998</v>
-      </c>
-      <c r="G62" s="3">
-        <f t="shared" si="4"/>
-        <v>1657.858788008185</v>
-      </c>
-      <c r="H62" s="3">
-        <f t="shared" si="5"/>
-        <v>0.69077449500341037</v>
-      </c>
+      <c r="F62" s="20">
+        <v>52.927199999999999</v>
+      </c>
+      <c r="G62" s="12">
+        <f t="shared" si="2"/>
+        <v>1657.8243322903913</v>
+      </c>
+      <c r="H62" s="12">
+        <f t="shared" si="3"/>
+        <v>0.69076013845432971</v>
+      </c>
+      <c r="I62" s="4"/>
     </row>
     <row r="63" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E63">
-        <v>2400</v>
-      </c>
-      <c r="F63">
-        <v>52.927199999999999</v>
-      </c>
-      <c r="G63" s="3">
-        <f t="shared" si="4"/>
-        <v>1657.8243322903913</v>
-      </c>
-      <c r="H63" s="3">
-        <f t="shared" si="5"/>
-        <v>0.69076013845432971</v>
-      </c>
+      <c r="B63" s="21"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="18">
+        <v>4800</v>
+      </c>
+      <c r="F63" s="20">
+        <v>26.5564</v>
+      </c>
+      <c r="G63" s="12">
+        <f t="shared" si="2"/>
+        <v>3304.0622976005784</v>
+      </c>
+      <c r="H63" s="12">
+        <f t="shared" si="3"/>
+        <v>0.68834631200012053</v>
+      </c>
+      <c r="I63" s="4"/>
     </row>
     <row r="64" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E64">
+      <c r="B64" s="21"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="18">
         <v>4800</v>
       </c>
-      <c r="F64">
-        <v>26.5564</v>
-      </c>
-      <c r="G64" s="3">
-        <f t="shared" si="4"/>
-        <v>3304.0622976005784</v>
-      </c>
-      <c r="H64" s="3">
-        <f t="shared" si="5"/>
-        <v>0.68834631200012053</v>
-      </c>
-    </row>
-    <row r="65" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E65">
-        <v>4800</v>
-      </c>
-      <c r="F65">
+      <c r="F64" s="20">
         <v>26.558299999999999</v>
       </c>
-      <c r="G65" s="3">
-        <f t="shared" si="4"/>
+      <c r="G64" s="12">
+        <f t="shared" si="2"/>
         <v>3303.8259225929373</v>
       </c>
-      <c r="H65" s="3">
-        <f t="shared" si="5"/>
+      <c r="H64" s="12">
+        <f t="shared" si="3"/>
         <v>0.6882970672068619</v>
       </c>
-    </row>
-    <row r="66" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E66">
+      <c r="I64" s="4"/>
+    </row>
+    <row r="65" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="21"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="18">
         <v>9600</v>
       </c>
-      <c r="F66">
+      <c r="F65" s="20">
         <v>13.375999999999999</v>
       </c>
-      <c r="G66" s="3">
-        <f t="shared" si="4"/>
+      <c r="G65" s="12">
+        <f t="shared" si="2"/>
         <v>6559.8086124401916</v>
       </c>
-      <c r="H66" s="3">
-        <f t="shared" si="5"/>
+      <c r="H65" s="12">
+        <f t="shared" si="3"/>
         <v>0.68331339712918659</v>
       </c>
-    </row>
-    <row r="67" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E67">
+      <c r="I65" s="4"/>
+    </row>
+    <row r="66" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="21"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="18">
         <v>9600</v>
       </c>
-      <c r="F67">
+      <c r="F66" s="20">
         <v>13.371700000000001</v>
       </c>
-      <c r="G67" s="3">
-        <f t="shared" si="4"/>
+      <c r="G66" s="12">
+        <f t="shared" si="2"/>
         <v>6561.9180807227203</v>
       </c>
-      <c r="H67" s="3">
-        <f t="shared" si="5"/>
+      <c r="H66" s="12">
+        <f t="shared" si="3"/>
         <v>0.68353313340861666</v>
       </c>
-    </row>
-    <row r="68" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E68">
+      <c r="I66" s="4"/>
+    </row>
+    <row r="67" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="21"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="18">
         <v>19200</v>
       </c>
-      <c r="F68">
+      <c r="F67" s="20">
         <v>6.7766999999999999</v>
       </c>
-      <c r="G68" s="3">
-        <f t="shared" si="4"/>
+      <c r="G67" s="12">
+        <f t="shared" si="2"/>
         <v>12947.894993138254</v>
       </c>
-      <c r="H68" s="3">
-        <f t="shared" si="5"/>
+      <c r="H67" s="12">
+        <f t="shared" si="3"/>
         <v>0.67436953089261742</v>
       </c>
-    </row>
-    <row r="69" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E69">
+      <c r="I67" s="4"/>
+    </row>
+    <row r="68" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="21"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="18">
         <v>19200</v>
       </c>
-      <c r="F69">
+      <c r="F68" s="20">
         <v>6.7862999999999998</v>
       </c>
-      <c r="G69" s="3">
-        <f t="shared" si="4"/>
+      <c r="G68" s="12">
+        <f t="shared" si="2"/>
         <v>12929.578710048187</v>
       </c>
-      <c r="H69" s="3">
-        <f t="shared" si="5"/>
+      <c r="H68" s="12">
+        <f t="shared" si="3"/>
         <v>0.67341555781500972</v>
       </c>
-    </row>
-    <row r="70" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E70">
+      <c r="I68" s="4"/>
+    </row>
+    <row r="69" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="21"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="18">
         <v>38400</v>
       </c>
-      <c r="F70">
+      <c r="F69" s="20">
         <v>3.4666000000000001</v>
       </c>
-      <c r="G70" s="3">
-        <f t="shared" si="4"/>
+      <c r="G69" s="12">
+        <f t="shared" si="2"/>
         <v>25311.255985692031</v>
       </c>
-      <c r="H70" s="3">
-        <f t="shared" si="5"/>
+      <c r="H69" s="12">
+        <f t="shared" si="3"/>
         <v>0.65914729129406335</v>
       </c>
-    </row>
-    <row r="71" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E71">
+      <c r="I69" s="4"/>
+    </row>
+    <row r="70" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="21"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="18">
         <v>38400</v>
       </c>
-      <c r="F71">
+      <c r="F70" s="20">
         <v>3.4661</v>
       </c>
-      <c r="G71" s="3">
-        <f t="shared" si="4"/>
+      <c r="G70" s="12">
+        <f t="shared" si="2"/>
         <v>25314.907244453421</v>
       </c>
-      <c r="H71" s="3">
-        <f t="shared" si="5"/>
+      <c r="H70" s="12">
+        <f t="shared" si="3"/>
         <v>0.65924237615764114</v>
       </c>
-    </row>
-    <row r="72" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="I70" s="4"/>
+    </row>
+    <row r="71" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
